--- a/wartosci_pieciu_lig.xlsx
+++ b/wartosci_pieciu_lig.xlsx
@@ -1,43 +1,132 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Python\Praca inz\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CE479A-8726-43E1-81DA-AA9CCA57EB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>sezon</t>
+  </si>
+  <si>
+    <t>Serie A</t>
+  </si>
+  <si>
+    <t>Ligue 1</t>
+  </si>
+  <si>
+    <t>Bundesliga</t>
+  </si>
+  <si>
+    <t>La liga</t>
+  </si>
+  <si>
+    <t>2004/2005</t>
+  </si>
+  <si>
+    <t>2005/2006</t>
+  </si>
+  <si>
+    <t>2006/2007</t>
+  </si>
+  <si>
+    <t>2007/2008</t>
+  </si>
+  <si>
+    <t>2008/2009</t>
+  </si>
+  <si>
+    <t>2009/2010</t>
+  </si>
+  <si>
+    <t>2010/2011</t>
+  </si>
+  <si>
+    <t>2011/2012</t>
+  </si>
+  <si>
+    <t>2012/2013</t>
+  </si>
+  <si>
+    <t>2013/2014</t>
+  </si>
+  <si>
+    <t>2014/2015</t>
+  </si>
+  <si>
+    <t>2015/2016</t>
+  </si>
+  <si>
+    <t>2016/2017</t>
+  </si>
+  <si>
+    <t>2017/2018</t>
+  </si>
+  <si>
+    <t>2018/2019</t>
+  </si>
+  <si>
+    <t>2019/2020</t>
+  </si>
+  <si>
+    <t>2020/2021</t>
+  </si>
+  <si>
+    <t>2021/2022</t>
+  </si>
+  <si>
+    <t>Premier league</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -46,94 +135,107 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{001632A8-7A7E-46DC-B0C2-E1B86B45649C}" name="Tabela1" displayName="Tabela1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:F19" xr:uid="{001632A8-7A7E-46DC-B0C2-E1B86B45649C}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{AE31A233-B0F4-42E2-84EE-DDEFD715A50A}" name="sezon"/>
+    <tableColumn id="2" xr3:uid="{E8F333D6-B72E-49A0-A810-8B0CEA0025E8}" name="Serie A"/>
+    <tableColumn id="3" xr3:uid="{47CA8E73-0B39-4E41-A49C-9C029878E039}" name="Ligue 1"/>
+    <tableColumn id="4" xr3:uid="{DF52C07C-2893-435C-BF16-5F88A51FA54B}" name="Bundesliga"/>
+    <tableColumn id="5" xr3:uid="{74FCE06F-3757-4F95-8F47-AF6EB0F88DBA}" name="La liga"/>
+    <tableColumn id="6" xr3:uid="{552F7915-B361-433F-A2E6-652B69B7DF9F}" name="Premier league" dataDxfId="0">
+      <calculatedColumnFormula>2400</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,389 +522,425 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>sezon</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Serie A</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Ligue 1</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Bundesliga</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>La liga</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2004/2005</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
         <v>1890</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>1040</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>1090</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>1670</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2005/2006</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="F2">
+        <f>2320</f>
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
         <v>1910</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>1270</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>1210</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>1870</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2006/2007</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="F3">
+        <f>2400</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
         <v>1910</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>1420</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>1300</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>2250</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2007/2008</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="F4">
+        <f>2610</f>
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
         <v>2240</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>1510</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>1480</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>2590</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2008/2009</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="F5">
+        <f>3170</f>
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
         <v>2430</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>1470</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>1670</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>2650</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2009/2010</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+      <c r="F6">
+        <f>3580</f>
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
         <v>2710</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>1590</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>1780</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>2700</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2010/2011</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+      <c r="F7">
+        <f>3490</f>
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
         <v>2610</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>1600</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>1930</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>2740</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2011/2012</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+      <c r="F8">
+        <f>3770</f>
+        <v>3770</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
         <v>2360</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>1590</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>1920</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>2780</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2012/2013</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+      <c r="F9">
+        <f>3570</f>
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
         <v>2580</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>1620</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>2070</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>2750</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2013/2014</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+      <c r="F10">
+        <f>3800</f>
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
         <v>2970</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>1750</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>2400</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>2790</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2014/2015</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+      <c r="F11">
+        <f>4040</f>
+        <v>4040</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
         <v>2790</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>1640</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>2490</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>3130</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2015/2016</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+      <c r="F12">
+        <f>4210</f>
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
         <v>2980</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>1790</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>2680</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>3470</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2016/2017</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+      <c r="F13">
+        <f>4860</f>
+        <v>4860</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
         <v>3450</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>2140</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>2880</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>4040</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2017/2018</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+      <c r="F14">
+        <f>5880</f>
+        <v>5880</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
         <v>4590</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>3480</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>3990</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>5130</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2018/2019</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+      <c r="F15">
+        <f>8080</f>
+        <v>8080</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
         <v>5920</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>4020</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>4880</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>6180</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2019/2020</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+      <c r="F16">
+        <f>9810</f>
+        <v>9810</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
         <v>4990</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>3410</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>4470</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>5430</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2020/2021</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+      <c r="F17">
+        <f>8300</f>
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
         <v>5440</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>4020</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>4800</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>5220</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2021/2022</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
+      <c r="F18">
+        <f>9160</f>
+        <v>9160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
         <v>5300</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>4210</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>4350</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>5230</v>
+      </c>
+      <c r="F19">
+        <f>9340</f>
+        <v>9340</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/wartosci_pieciu_lig.xlsx
+++ b/wartosci_pieciu_lig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Python\Praca inz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CE479A-8726-43E1-81DA-AA9CCA57EB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8E2A12-1D36-4D81-A080-B961445415D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,61 +37,61 @@
     <t>La liga</t>
   </si>
   <si>
-    <t>2004/2005</t>
-  </si>
-  <si>
-    <t>2005/2006</t>
-  </si>
-  <si>
-    <t>2006/2007</t>
-  </si>
-  <si>
-    <t>2007/2008</t>
-  </si>
-  <si>
-    <t>2008/2009</t>
-  </si>
-  <si>
-    <t>2009/2010</t>
-  </si>
-  <si>
-    <t>2010/2011</t>
-  </si>
-  <si>
-    <t>2011/2012</t>
-  </si>
-  <si>
-    <t>2012/2013</t>
-  </si>
-  <si>
-    <t>2013/2014</t>
-  </si>
-  <si>
-    <t>2014/2015</t>
-  </si>
-  <si>
-    <t>2015/2016</t>
-  </si>
-  <si>
-    <t>2016/2017</t>
-  </si>
-  <si>
-    <t>2017/2018</t>
-  </si>
-  <si>
-    <t>2018/2019</t>
-  </si>
-  <si>
-    <t>2019/2020</t>
-  </si>
-  <si>
-    <t>2020/2021</t>
-  </si>
-  <si>
-    <t>2021/2022</t>
-  </si>
-  <si>
     <t>Premier league</t>
+  </si>
+  <si>
+    <t>04/05</t>
+  </si>
+  <si>
+    <t>05/06</t>
+  </si>
+  <si>
+    <t>06/07</t>
+  </si>
+  <si>
+    <t>07/08</t>
+  </si>
+  <si>
+    <t>08/09</t>
+  </si>
+  <si>
+    <t>09/10</t>
+  </si>
+  <si>
+    <t>10/11</t>
+  </si>
+  <si>
+    <t>11/12</t>
+  </si>
+  <si>
+    <t>12/13</t>
+  </si>
+  <si>
+    <t>13/14</t>
+  </si>
+  <si>
+    <t>14/15</t>
+  </si>
+  <si>
+    <t>15/16</t>
+  </si>
+  <si>
+    <t>16/17</t>
+  </si>
+  <si>
+    <t>17/18</t>
+  </si>
+  <si>
+    <t>18/19</t>
+  </si>
+  <si>
+    <t>19/20</t>
+  </si>
+  <si>
+    <t>20/21</t>
+  </si>
+  <si>
+    <t>21/22</t>
   </si>
 </sst>
 </file>
@@ -164,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -172,6 +172,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -526,7 +527,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,12 +557,12 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
+      <c r="A2" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B2">
         <v>1890</v>
@@ -581,8 +582,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
+      <c r="A3" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B3">
         <v>1910</v>
@@ -602,8 +603,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
+      <c r="A4" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B4">
         <v>1910</v>
@@ -623,8 +624,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
+      <c r="A5" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B5">
         <v>2240</v>
@@ -644,8 +645,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
+      <c r="A6" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B6">
         <v>2430</v>
@@ -665,8 +666,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
+      <c r="A7" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B7">
         <v>2710</v>
@@ -686,8 +687,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
+      <c r="A8" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B8">
         <v>2610</v>
@@ -707,8 +708,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>12</v>
+      <c r="A9" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B9">
         <v>2360</v>
@@ -728,8 +729,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>13</v>
+      <c r="A10" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B10">
         <v>2580</v>
@@ -749,8 +750,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>14</v>
+      <c r="A11" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B11">
         <v>2970</v>
@@ -770,8 +771,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>15</v>
+      <c r="A12" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B12">
         <v>2790</v>
@@ -791,8 +792,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>16</v>
+      <c r="A13" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B13">
         <v>2980</v>
@@ -812,8 +813,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>17</v>
+      <c r="A14" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B14">
         <v>3450</v>
@@ -833,8 +834,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>18</v>
+      <c r="A15" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B15">
         <v>4590</v>
@@ -854,8 +855,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>19</v>
+      <c r="A16" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B16">
         <v>5920</v>
@@ -875,8 +876,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>20</v>
+      <c r="A17" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B17">
         <v>4990</v>
@@ -896,8 +897,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>21</v>
+      <c r="A18" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B18">
         <v>5440</v>
@@ -917,8 +918,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>22</v>
+      <c r="A19" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B19">
         <v>5300</v>

--- a/wartosci_pieciu_lig.xlsx
+++ b/wartosci_pieciu_lig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Python\Praca inz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8E2A12-1D36-4D81-A080-B961445415D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C393A01A-B0BD-40CD-8A57-62E381A6B551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>sezon</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>21/22</t>
+  </si>
+  <si>
+    <t>22/23</t>
   </si>
 </sst>
 </file>
@@ -164,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -173,6 +176,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -223,8 +227,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{001632A8-7A7E-46DC-B0C2-E1B86B45649C}" name="Tabela1" displayName="Tabela1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:F19" xr:uid="{001632A8-7A7E-46DC-B0C2-E1B86B45649C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{001632A8-7A7E-46DC-B0C2-E1B86B45649C}" name="Tabela1" displayName="Tabela1" ref="A1:F20" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:F20" xr:uid="{001632A8-7A7E-46DC-B0C2-E1B86B45649C}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{AE31A233-B0F4-42E2-84EE-DDEFD715A50A}" name="sezon"/>
     <tableColumn id="2" xr3:uid="{E8F333D6-B72E-49A0-A810-8B0CEA0025E8}" name="Serie A"/>
@@ -524,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -938,6 +942,31 @@
         <v>9340</v>
       </c>
     </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <f>4630</f>
+        <v>4630</v>
+      </c>
+      <c r="C20">
+        <f>3570</f>
+        <v>3570</v>
+      </c>
+      <c r="D20">
+        <f>4330</f>
+        <v>4330</v>
+      </c>
+      <c r="E20">
+        <f>4780</f>
+        <v>4780</v>
+      </c>
+      <c r="F20" s="4">
+        <f>10600</f>
+        <v>10600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">

--- a/wartosci_pieciu_lig.xlsx
+++ b/wartosci_pieciu_lig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Python\Praca inz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C393A01A-B0BD-40CD-8A57-62E381A6B551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0064E9C8-31E3-46D9-8D40-7AE7A597811A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,12 +34,6 @@
     <t>Bundesliga</t>
   </si>
   <si>
-    <t>La liga</t>
-  </si>
-  <si>
-    <t>Premier league</t>
-  </si>
-  <si>
     <t>04/05</t>
   </si>
   <si>
@@ -95,6 +89,12 @@
   </si>
   <si>
     <t>22/23</t>
+  </si>
+  <si>
+    <t>La Liga</t>
+  </si>
+  <si>
+    <t>Premier League</t>
   </si>
 </sst>
 </file>
@@ -176,7 +176,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -234,8 +236,8 @@
     <tableColumn id="2" xr3:uid="{E8F333D6-B72E-49A0-A810-8B0CEA0025E8}" name="Serie A"/>
     <tableColumn id="3" xr3:uid="{47CA8E73-0B39-4E41-A49C-9C029878E039}" name="Ligue 1"/>
     <tableColumn id="4" xr3:uid="{DF52C07C-2893-435C-BF16-5F88A51FA54B}" name="Bundesliga"/>
-    <tableColumn id="5" xr3:uid="{74FCE06F-3757-4F95-8F47-AF6EB0F88DBA}" name="La liga"/>
-    <tableColumn id="6" xr3:uid="{552F7915-B361-433F-A2E6-652B69B7DF9F}" name="Premier league" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{74FCE06F-3757-4F95-8F47-AF6EB0F88DBA}" name="La Liga"/>
+    <tableColumn id="6" xr3:uid="{552F7915-B361-433F-A2E6-652B69B7DF9F}" name="Premier League" dataDxfId="0">
       <calculatedColumnFormula>2400</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -531,7 +533,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -557,16 +559,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+      <c r="E1" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>1890</v>
@@ -587,7 +589,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>1910</v>
@@ -608,7 +610,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>1910</v>
@@ -629,7 +631,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>2240</v>
@@ -650,7 +652,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>2430</v>
@@ -671,7 +673,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>2710</v>
@@ -692,7 +694,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>2610</v>
@@ -713,7 +715,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>2360</v>
@@ -734,7 +736,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>2580</v>
@@ -755,7 +757,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>2970</v>
@@ -776,7 +778,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>2790</v>
@@ -797,7 +799,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>2980</v>
@@ -818,7 +820,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>3450</v>
@@ -839,7 +841,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>4590</v>
@@ -860,7 +862,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>5920</v>
@@ -881,7 +883,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>4990</v>
@@ -902,7 +904,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>5440</v>
@@ -923,7 +925,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>5300</v>
@@ -944,7 +946,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <f>4630</f>
@@ -962,7 +964,7 @@
         <f>4780</f>
         <v>4780</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20">
         <f>10600</f>
         <v>10600</v>
       </c>
